--- a/biology/Botanique/Liste_d'espèces_envahissantes/Liste_d'espèces_envahissantes.xlsx
+++ b/biology/Botanique/Liste_d'espèces_envahissantes/Liste_d'espèces_envahissantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_envahissantes</t>
+          <t>Liste_d'espèces_envahissantes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'introduction, volontaire ou non, de nouvelles espèces dans un milieu peut entraîner des conséquences importantes. Cette nouvelle espèce peut s'adapter, au détriment des espèces indigènes (ou autochtones) et devenir une espèce envahissante.
 Cette introduction peut amener d'importants risques écologiques mais aussi économiques et sociaux.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_envahissantes</t>
+          <t>Liste_d'espèces_envahissantes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Plantes
-France
-Plantes envahissantes avérées
+          <t>Plantes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plantes envahissantes avérées
 Classées par ordre alphabétique des noms usuels :
 Ailante - Ailanthus altissima
 Ambroisie à feuilles d'armoise - Ambrosia artemisiifolia
@@ -581,9 +601,47 @@
 Lentille d'eau rouge, Lemna turionifera
 Rudbéckie laciniée, Rudbeckia laciniata
 Spartine de Townsend, Spartina townsendii
-Rose trémière (Alcea rosea, d'origine orientale)[1]
-Amérique du Nord
-Caulerpe (Caulerpa taxifolia) et en Méditerranée
+Rose trémière (Alcea rosea, d'origine orientale)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_envahissantes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_envahissantes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces envahissantes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Plantes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Caulerpe (Caulerpa taxifolia) et en Méditerranée
 Renouée du Japon, ou Renouée bambou (Fallopia japonica) et en Europe
 Hoffe (Dioscorea bulbifera)
 Casuarina equisetifolia
@@ -638,9 +696,47 @@
 Jacinthe d'eau (Eichhornia crassipes)
 Panais sauvage (Pastinaca sativa)
 Taro (Colocasia esculenta)
-Centaurée du solstice (Centaurea solstitialis)
-Océanie (dont Polynésie)
-Chou de Tournefort (Brassica tournefortii)
+Centaurée du solstice (Centaurea solstitialis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_envahissantes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_envahissantes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces envahissantes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Plantes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Océanie (dont Polynésie)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chou de Tournefort (Brassica tournefortii)
 Anone des marais (Annona glabra)
 Herbe à alligator (Alternanthera philoxeroides)
 Asperge de Sprenger (Asparagus densiflorus)
@@ -668,9 +764,47 @@
 Clématite des haies (Clematis vitalba)
 Herbe de la pampa (Cortaderia selloana)
 Séneçon de Jacob (Jacobaea vulgaris)
-Tradescantia (Tradescantia pallida)
-Afrique du Sud
-Acacia d'Australie (Acacia spp.)
+Tradescantia (Tradescantia pallida)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_envahissantes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_envahissantes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces envahissantes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Afrique du Sud</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Acacia d'Australie (Acacia spp.)
 Black Wattle (Callicoma serratifolia)
 Ricin commun (Ricinus communis)
 Eucalyptus (Eucalyptus sp.)
@@ -687,10 +821,47 @@
 Bringellier marron (Solanum mauritianum), envahissante à La Réunion
 (Melia azedarach)
 Herbe du Laos (Chromolaena odorata)
-Jacinthe d'eau (Eichhornia crassipes)
-Animaux
-Insectes
-Fourmis. De nombreuses espèces dites « vagabondes » ont involontairement été introduites hors de leurs biotopes. Certaines sont devenues envahissantes et posent de graves problèmes à la faune locale et aux cultures, voire aux hommes. Six espèces sont jugées particulièrement agressives et envahissantes ; 
+Jacinthe d'eau (Eichhornia crassipes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_envahissantes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_envahissantes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces envahissantes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fourmis. De nombreuses espèces dites « vagabondes » ont involontairement été introduites hors de leurs biotopes. Certaines sont devenues envahissantes et posent de graves problèmes à la faune locale et aux cultures, voire aux hommes. Six espèces sont jugées particulièrement agressives et envahissantes ; 
 les fourmis de feu du genre Solenopsis, dont Solenopsis invicta (fourmi, sous-famille des Myrmicinae) en Amérique du Nord
 la fourmi d’Argentine, Linepithema humile, (« fourmi tueuse », sous-famille des Dolichoderinae) en Australie et en Europe
 la fourmi à grosse tête, Pheidole megacephala
@@ -720,9 +891,47 @@
 Une guêpe maçonne, la Pélopée courbée
 Varroa destructor (un acarien, parasite des abeilles) en Europe d'abord vers 1980 puis en Amérique du Nord
 Vespa velutina ou frelon asiatique, introduit accidentellement dans le sud-ouest de la France avant 2006
-Rhagonycha fulva, un coléoptère européen en Amérique du Nord
-Poissons
-En Europe
+Rhagonycha fulva, un coléoptère européen en Amérique du Nord</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_envahissantes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_envahissantes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces envahissantes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En Europe
 Les espèces de poissons envahissantes en Europe sont : 
 Perche soleil (Lepomis gibbosus)
 Poisson-chat (Ameiurus melas), introduit en 1871
@@ -734,7 +943,7 @@
 Proterorhinus semilunaris
 Perccottus glenii, petit poisson de la famille des Odontobutidae issu du bassin de l'Amour en Chine et Russie de l'Est. Envahissant en Europe de l'Est : bassins de la Volga, de la Vistule, du Danube (jusqu'en Bavière), etc.
 Silure glane (Silurus glanis) : originaire d'Europe centrale, orientale et nordique. Introduite en Europe occidentale pour la pêche
-Sandre doré européen (Sander lucioperca), de même origine géographique que le silure. Introduit pour la pêche, avec une première capture en France signalée en 1888[2], il est désormais présent presque partout en Europe de l'Ouest
+Sandre doré européen (Sander lucioperca), de même origine géographique que le silure. Introduit pour la pêche, avec une première capture en France signalée en 1888, il est désormais présent presque partout en Europe de l'Ouest
 Autres continents
 Alosa pseudoharengus, un poisson du genre alose, en Amérique du Nord
 Channa argus (ordre des perciformes) en Amérique du Nord
@@ -744,19 +953,134 @@
 Monopterus albus (Synbranchiformes) en Amérique du Nord
 Neogobius melanostomus et les autres gobies ponto-caspiens, en Amérique du Nord
 La lamproie marine Petromyzon marinus en Amérique du Nord (Grands lacs)
-Pylodictis olivaris (un poisson-chat, ordre des Siluriformes) en Amérique du Nord
-Reptiles et batraciens
-Boiga irregularis, un serpent du genre Boiga et de la famille des Colubridae sur l'île de Guam
+Pylodictis olivaris (un poisson-chat, ordre des Siluriformes) en Amérique du Nord</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_envahissantes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_envahissantes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces envahissantes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Reptiles et batraciens</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Boiga irregularis, un serpent du genre Boiga et de la famille des Colubridae sur l'île de Guam
 Bufo marinus en Amérique du Nord et en Australie
 La Grenouille taureau (Rana catesbeiana) dans le sud-ouest de la France et en Amérique du Nord
-La Tortue de Floride (Trachemys scripta elegans) dans la totalité de la France
-Invertébrés terrestres
-À titre d'exemple, divers mollusques et macroinvertébrés benthiques (Bivalves et Amphipodes) envahissants se propagent les bassins conchylicoles, dans les piscicultures ou dans les eaux douces, saumâtres et salées dans le cas de la moule zébrée
+La Tortue de Floride (Trachemys scripta elegans) dans la totalité de la France</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_envahissantes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_envahissantes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces envahissantes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Invertébrés terrestres</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À titre d'exemple, divers mollusques et macroinvertébrés benthiques (Bivalves et Amphipodes) envahissants se propagent les bassins conchylicoles, dans les piscicultures ou dans les eaux douces, saumâtres et salées dans le cas de la moule zébrée
 Sur terre, l'escargot Xeropicta derbentina se répand autour de la Méditerranée, des insectes phytophages Cameraria ohridella (mineuse du marronnier) aussi. On peut également citer Achatina fulica (escargot géant); 
 Diverses espèces de vers de terre (Lumbricidae) en Amérique du Nord
 Le ver plat Arthurdendyus triangulatus, originaire de Nouvelle-Zélande, qui tue et mange les vers de terre notamment au Royaume-Uni où il est devenu envahissant
-Invertébrés aquatiques
-Asterias amurensis en Australie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_envahissantes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_envahissantes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Espèces envahissantes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Invertébrés aquatiques</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Asterias amurensis en Australie
 Acanthaster planci ("étoile de mer dévoreuse de corail") en Australie et dans tout l'indopacifique, où elle est partout une espèce autochtone, donc non « envahissante exotique », mais uniquement une espèce « envahissante indigène »
 Carcinus maenas en Amérique du Nord
 La crépidule Crepidula fornicata en Europe
@@ -769,12 +1093,50 @@
 L'écrevisse américaine, l'écrevisse de Californie ainsi que l'écrevisse à pattes grêles en France et dans d'autres pays d'Europe
 Rapana venosa en Amérique du Nord
 Pomacea canaliculata (Ampullaire brune ou escargot-pomme), fléau dans le delta de l'Èbre, après s'être échappé d'un établissement piscicole
-Gammare du Danube ou crevette tueuse en Europe de l'Ouest, par exemple dans le Lac Léman[3]
-Hypania invalida (Grube, 1860), Polychaeta Ampharetidae, originaire du Bassin ponto-caspien et du Delta du Danube. Se répand en Europe via les canaux, après avoir été introduite dans le bassin de la Volga pour y nourrir des poissons dans des réservoirs[4]
-Oiseaux et mammifères
-En Europe
-Mammifères : Castor canadien, Rat musqué, Ragondin, Vison d'Amérique. Localement, le Raton laveur[5] et l'Écureuil gris[6]. Certains[5] ajoutent le Rat surmulot (Rattus norvegicus) que d'autres considèrent comme une espèce naturalisée
-Oiseaux : La perruche à collier (Psittacula krameri) et l'Érismature rousse[6].
+Gammare du Danube ou crevette tueuse en Europe de l'Ouest, par exemple dans le Lac Léman
+Hypania invalida (Grube, 1860), Polychaeta Ampharetidae, originaire du Bassin ponto-caspien et du Delta du Danube. Se répand en Europe via les canaux, après avoir été introduite dans le bassin de la Volga pour y nourrir des poissons dans des réservoirs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_envahissantes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_envahissantes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espèces envahissantes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Oiseaux et mammifères</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>En Europe
+Mammifères : Castor canadien, Rat musqué, Ragondin, Vison d'Amérique. Localement, le Raton laveur et l'Écureuil gris. Certains ajoutent le Rat surmulot (Rattus norvegicus) que d'autres considèrent comme une espèce naturalisée
+Oiseaux : La perruche à collier (Psittacula krameri) et l'Érismature rousse.
 Des questions se sont posées localement pour l'étourneau ou le goéland en ville, mais ils ne sont pas considérés comme nuisibles. Le statut du Grand cormoran (Phalacrocorax carbo L.) dans le bassin rhénan et dans la zone des étangs lorrains ainsi que de certains cygnes est discuté, à la suite de leur rapide développement sur des zones d'où ils ont depuis longtemps disparu, ou à la suite de leur sédentarisation. Aujourd'hui le grand cormoran est toujours une espèce protégée, mais certains cygnes comme le cygne noir et le cygne siffleur sont considérés comme invasifs.
 Autres continents
 Le martin triste (Acridotheres tristis), un mainate d'Asie, introduit dans des îles de l'océan Indien et du Pacifique
@@ -799,9 +1161,43 @@
 La souris commune (Mus musculus), en Australie et en Nouvelle-Zélande
 L'écureuil gris (Sciurus carolinensis) en Europe
 L'étourneau sansonnet (Sturnus vulgaris) en Amérique du Nord et en Australie
-Le sanglier (Sus scrofa) en Amérique du Nord
-Champignons et pathogènes
-L'Avipoxvirus en Amérique du Nord
+Le sanglier (Sus scrofa) en Amérique du Nord</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_envahissantes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_envahissantes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Espèces envahissantes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Champignons et pathogènes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L'Avipoxvirus en Amérique du Nord
 Batrachochytrium dendrobatidis en Australie
 Cryphonectria parasitica en Amérique du Nord
 Le phylloxéra (Dactylosphaera vitifoliae) sur les vignes européennes à la fin du XIXe siècle.
